--- a/full/sliding_window_results_window_9.xlsx
+++ b/full/sliding_window_results_window_9.xlsx
@@ -468,13 +468,13 @@
         <v>33.1</v>
       </c>
       <c r="C2" t="n">
-        <v>33.77253482466475</v>
+        <v>33.96404935919266</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6725348246647442</v>
+        <v>0.8640493591926557</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4523030903868382</v>
+        <v>0.7465812951212389</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>34.4</v>
       </c>
       <c r="C3" t="n">
-        <v>35.22495432979608</v>
+        <v>35.29879116920395</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8249543297960784</v>
+        <v>0.8987911692039532</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6805496462492969</v>
+        <v>0.8078255658390092</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>36.3</v>
       </c>
       <c r="C4" t="n">
-        <v>37.69353432015384</v>
+        <v>37.76194188668674</v>
       </c>
       <c r="D4" t="n">
-        <v>1.393534320153847</v>
+        <v>1.461941886686745</v>
       </c>
       <c r="E4" t="n">
-        <v>1.941937901446645</v>
+        <v>2.137274080049199</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>38.5</v>
       </c>
       <c r="C5" t="n">
-        <v>38.94363189020824</v>
+        <v>38.83245521825231</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4436318902082377</v>
+        <v>0.3324552182523064</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1968092540097338</v>
+        <v>0.1105264721431887</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>40.1</v>
       </c>
       <c r="C6" t="n">
-        <v>40.63785961807604</v>
+        <v>40.70687530790657</v>
       </c>
       <c r="D6" t="n">
-        <v>0.537859618076034</v>
+        <v>0.6068753079065701</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2892929687568971</v>
+        <v>0.3682976393466942</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>41.5</v>
       </c>
       <c r="C7" t="n">
-        <v>42.67363186936365</v>
+        <v>42.78072571386905</v>
       </c>
       <c r="D7" t="n">
-        <v>1.173631869363646</v>
+        <v>1.280725713869046</v>
       </c>
       <c r="E7" t="n">
-        <v>1.377411764786007</v>
+        <v>1.640258354165377</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>43.7</v>
       </c>
       <c r="C8" t="n">
-        <v>46.01777399473561</v>
+        <v>46.05351544841457</v>
       </c>
       <c r="D8" t="n">
-        <v>2.317773994735603</v>
+        <v>2.353515448414569</v>
       </c>
       <c r="E8" t="n">
-        <v>5.372076290672635</v>
+        <v>5.539034965926031</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>48.1</v>
       </c>
       <c r="C9" t="n">
-        <v>48.80551436175868</v>
+        <v>49.29439460333329</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7055143617586808</v>
+        <v>1.194394603333286</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4977505146477587</v>
+        <v>1.426578468471678</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>53</v>
       </c>
       <c r="C10" t="n">
-        <v>54.7401917879783</v>
+        <v>55.04506106475206</v>
       </c>
       <c r="D10" t="n">
-        <v>1.740191787978297</v>
+        <v>2.045061064752062</v>
       </c>
       <c r="E10" t="n">
-        <v>3.028267458947103</v>
+        <v>4.182274758564837</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>56.1</v>
       </c>
       <c r="C11" t="n">
-        <v>58.05700678472529</v>
+        <v>58.24881073158052</v>
       </c>
       <c r="D11" t="n">
-        <v>1.957006784725287</v>
+        <v>2.148810731580518</v>
       </c>
       <c r="E11" t="n">
-        <v>3.829875555460807</v>
+        <v>4.617387560155601</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>61.89063904883189</v>
+        <v>62.26379797228556</v>
       </c>
       <c r="D12" t="n">
-        <v>1.890639048831886</v>
+        <v>2.263797972285559</v>
       </c>
       <c r="E12" t="n">
-        <v>3.57451601296794</v>
+        <v>5.124781259324209</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>63.9</v>
       </c>
       <c r="C13" t="n">
-        <v>65.68883337145138</v>
+        <v>65.91506040544468</v>
       </c>
       <c r="D13" t="n">
-        <v>1.788833371451382</v>
+        <v>2.015060405444679</v>
       </c>
       <c r="E13" t="n">
-        <v>3.199924830818118</v>
+        <v>4.060468437590873</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>70.59999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>73.57015606731599</v>
+        <v>73.99382675082093</v>
       </c>
       <c r="D14" t="n">
-        <v>2.970156067315997</v>
+        <v>3.393826750820935</v>
       </c>
       <c r="E14" t="n">
-        <v>8.821827064214032</v>
+        <v>11.51806001458779</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>80.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>84.52580017200057</v>
+        <v>85.17438730556047</v>
       </c>
       <c r="D15" t="n">
-        <v>3.625800172000567</v>
+        <v>4.274387305560467</v>
       </c>
       <c r="E15" t="n">
-        <v>13.14642688727934</v>
+        <v>18.27038683793647</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>89.09999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>93.15472899531838</v>
+        <v>93.73483393500263</v>
       </c>
       <c r="D16" t="n">
-        <v>4.054728995318385</v>
+        <v>4.634833935002632</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44082722547564</v>
+        <v>21.48168560505198</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>95</v>
       </c>
       <c r="C17" t="n">
-        <v>98.95600185276366</v>
+        <v>99.50830355176255</v>
       </c>
       <c r="D17" t="n">
-        <v>3.956001852763663</v>
+        <v>4.508303551762552</v>
       </c>
       <c r="E17" t="n">
-        <v>15.64995065906953</v>
+        <v>20.32480091483484</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>98.8</v>
       </c>
       <c r="C18" t="n">
-        <v>102.8222938774154</v>
+        <v>103.5057390847355</v>
       </c>
       <c r="D18" t="n">
-        <v>4.022293877415422</v>
+        <v>4.705739084735541</v>
       </c>
       <c r="E18" t="n">
-        <v>16.17884803629359</v>
+        <v>22.14398033360768</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>103.3</v>
       </c>
       <c r="C19" t="n">
-        <v>106.2922213144624</v>
+        <v>106.6371528037631</v>
       </c>
       <c r="D19" t="n">
-        <v>2.992221314462384</v>
+        <v>3.337152803763075</v>
       </c>
       <c r="E19" t="n">
-        <v>8.953388394722996</v>
+        <v>11.13658883566375</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>107</v>
       </c>
       <c r="C20" t="n">
-        <v>109.6555215286739</v>
+        <v>109.8896567858072</v>
       </c>
       <c r="D20" t="n">
-        <v>2.655521528673859</v>
+        <v>2.889656785807233</v>
       </c>
       <c r="E20" t="n">
-        <v>7.051794589250347</v>
+        <v>8.350116339761788</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>108.7</v>
       </c>
       <c r="C21" t="n">
-        <v>111.876677723218</v>
+        <v>112.4418110610226</v>
       </c>
       <c r="D21" t="n">
-        <v>3.17667772321802</v>
+        <v>3.741811061022617</v>
       </c>
       <c r="E21" t="n">
-        <v>10.09128135718963</v>
+        <v>14.0011500163912</v>
       </c>
     </row>
     <row r="22">
@@ -808,11 +808,11 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>42.89950773291202</v>
+        <v>48.951190159397</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>120.7750595026449</v>
+        <v>157.9880577545334</v>
       </c>
     </row>
     <row r="23">
@@ -825,7 +825,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>6.038752975132244</v>
+        <v>7.899402887726671</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_9.xlsx
+++ b/full/sliding_window_results_window_9.xlsx
@@ -468,13 +468,13 @@
         <v>29.81</v>
       </c>
       <c r="C2" t="n">
-        <v>30.38714239875284</v>
+        <v>29.81875013623482</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5771423987528443</v>
+        <v>0.008750136234823458</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3330933484381872</v>
+        <v>7.656488412797044e-05</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.92</v>
       </c>
       <c r="C3" t="n">
-        <v>30.20424264837479</v>
+        <v>29.96620692625546</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2842426483747857</v>
+        <v>0.04620692625545786</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08079388315511209</v>
+        <v>0.002135080033977321</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.98</v>
       </c>
       <c r="C4" t="n">
-        <v>29.60451508679434</v>
+        <v>29.64858280488839</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.375484913205657</v>
+        <v>-0.3314171951116087</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1409889200450598</v>
+        <v>0.1098373572156461</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>30.04</v>
       </c>
       <c r="C5" t="n">
-        <v>29.90138387639368</v>
+        <v>29.67757263402056</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1386161236063188</v>
+        <v>-0.362427365979439</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01921442972364226</v>
+        <v>0.1313535956107942</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>30.21</v>
       </c>
       <c r="C6" t="n">
-        <v>29.52965659601929</v>
+        <v>29.16275545037829</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6803434039807073</v>
+        <v>-1.047244549621713</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4628671473400559</v>
+        <v>1.096721146712384</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.22</v>
       </c>
       <c r="C7" t="n">
-        <v>29.92241711051456</v>
+        <v>29.46962369755646</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2975828894854402</v>
+        <v>-0.7503763024435415</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08855557611450372</v>
+        <v>0.5630645952688412</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.38</v>
       </c>
       <c r="C8" t="n">
-        <v>29.82957776103391</v>
+        <v>29.70658430130748</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5504222389660889</v>
+        <v>-0.6734156986925157</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3029646411484422</v>
+        <v>0.4534887032455291</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.44</v>
       </c>
       <c r="C9" t="n">
-        <v>30.48748488097121</v>
+        <v>30.12604549054759</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04748488097120784</v>
+        <v>-0.3139545094524081</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002254813920849777</v>
+        <v>0.09856743400550221</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.48</v>
       </c>
       <c r="C10" t="n">
-        <v>30.35523971682203</v>
+        <v>30.36788804828327</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1247602831779666</v>
+        <v>-0.1121119517167344</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01556512825864642</v>
+        <v>0.01256908971773538</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.69</v>
       </c>
       <c r="C11" t="n">
-        <v>30.55629286458905</v>
+        <v>30.59325418296149</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1337071354109547</v>
+        <v>-0.09674581703851004</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01787759805980338</v>
+        <v>0.00935975311444886</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.75</v>
       </c>
       <c r="C12" t="n">
-        <v>30.34749455427049</v>
+        <v>30.77393812435264</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4025054457295099</v>
+        <v>0.02393812435263953</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1620106338419114</v>
+        <v>0.0005730337975224339</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.94</v>
       </c>
       <c r="C13" t="n">
-        <v>30.63918103055309</v>
+        <v>31.27779436763707</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3008189694469117</v>
+        <v>0.3377943676370734</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09049205237910198</v>
+        <v>0.1141050348073303</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.95</v>
       </c>
       <c r="C14" t="n">
-        <v>30.85205001054801</v>
+        <v>31.36702078946621</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.09794998945199396</v>
+        <v>0.4170207894662106</v>
       </c>
       <c r="E14" t="n">
-        <v>0.009594200433645728</v>
+        <v>0.1739063388470215</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>31.02</v>
       </c>
       <c r="C15" t="n">
-        <v>31.41783529191696</v>
+        <v>31.55713406818036</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3978352919169588</v>
+        <v>0.5371340681803645</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1582729194946518</v>
+        <v>0.2885130071999884</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.12</v>
       </c>
       <c r="C16" t="n">
-        <v>31.73871019207804</v>
+        <v>31.65189932080112</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6187101920780371</v>
+        <v>0.53189932080112</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3828023017812416</v>
+        <v>0.2829168874686928</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.28</v>
       </c>
       <c r="C17" t="n">
-        <v>31.81434325783658</v>
+        <v>32.01539590513798</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5343432578365821</v>
+        <v>0.7353959051379775</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2855227171954121</v>
+        <v>0.5408071372937052</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.38</v>
       </c>
       <c r="C18" t="n">
-        <v>31.51369094615249</v>
+        <v>31.84194400932813</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1336909461524947</v>
+        <v>0.4619440093281284</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01787326908314923</v>
+        <v>0.213392267754146</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.58</v>
       </c>
       <c r="C19" t="n">
-        <v>31.87210189948917</v>
+        <v>31.89641465392014</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2921018994891682</v>
+        <v>0.3164146539201411</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08532351968518012</v>
+        <v>0.1001182332154027</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.65</v>
       </c>
       <c r="C20" t="n">
-        <v>31.81605668925805</v>
+        <v>31.85318138283721</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1660566892580491</v>
+        <v>0.203181382837208</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02757482404734427</v>
+        <v>0.04128267433164007</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.88</v>
       </c>
       <c r="C21" t="n">
-        <v>32.49591812876506</v>
+        <v>32.48827214235342</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6159181287650632</v>
+        <v>0.6082721423534245</v>
       </c>
       <c r="E21" t="n">
-        <v>0.379355141341457</v>
+        <v>0.3699949991632248</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>32.28</v>
       </c>
       <c r="C22" t="n">
-        <v>32.39772312690157</v>
+        <v>32.51841802215459</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1177231269015735</v>
+        <v>0.2384180221545904</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01385873460748398</v>
+        <v>0.05684315328810676</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>32.45</v>
       </c>
       <c r="C23" t="n">
-        <v>32.47967215352129</v>
+        <v>32.34449417521264</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0296721535212825</v>
+        <v>-0.1055058247873646</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0008804366945905572</v>
+        <v>0.01113147906406208</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.85</v>
       </c>
       <c r="C24" t="n">
-        <v>32.70930963669593</v>
+        <v>33.24921042515826</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.140690363304067</v>
+        <v>0.3992104251582589</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01979377832663037</v>
+        <v>0.1593689635550378</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.9</v>
       </c>
       <c r="C25" t="n">
-        <v>32.84341623544406</v>
+        <v>33.09910619755787</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.05658376455593839</v>
+        <v>0.1991061975578674</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00320172241132187</v>
+        <v>0.03964327790595253</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>33.1</v>
       </c>
       <c r="C26" t="n">
-        <v>33.22115909197819</v>
+        <v>32.83653587329206</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1211590919781855</v>
+        <v>-0.2634641267079374</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01467952556897842</v>
+        <v>0.06941334606197609</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>33.4</v>
       </c>
       <c r="C27" t="n">
-        <v>33.7539685039599</v>
+        <v>33.30289103388547</v>
       </c>
       <c r="D27" t="n">
-        <v>0.353968503959905</v>
+        <v>-0.09710896611452569</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1252937017956133</v>
+        <v>0.009430151299832098</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>33.7</v>
       </c>
       <c r="C28" t="n">
-        <v>33.95208900788641</v>
+        <v>33.44744563754524</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2520890078864042</v>
+        <v>-0.2525543624547666</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06354886789715156</v>
+        <v>0.06378370599493362</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>34.1</v>
       </c>
       <c r="C29" t="n">
-        <v>34.04613279726959</v>
+        <v>33.97102875782325</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0538672027304159</v>
+        <v>-0.1289712421767533</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002901675529999726</v>
+        <v>0.01663358130861474</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>34.4</v>
       </c>
       <c r="C30" t="n">
-        <v>34.35496298046779</v>
+        <v>34.30255505098672</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0450370195322094</v>
+        <v>-0.09744494901327982</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002028333128344611</v>
+        <v>0.009495518088200705</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>34.9</v>
       </c>
       <c r="C31" t="n">
-        <v>34.68193311658447</v>
+        <v>34.76595028143137</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2180668834155313</v>
+        <v>-0.134049718568626</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04755316564256291</v>
+        <v>0.01796932704832784</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>35.3</v>
       </c>
       <c r="C32" t="n">
-        <v>35.42135877841788</v>
+        <v>35.25082738242374</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1213587784178856</v>
+        <v>-0.04917261757626079</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01472795309908145</v>
+        <v>0.002417946319301192</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>35.7</v>
       </c>
       <c r="C33" t="n">
-        <v>35.84551657332369</v>
+        <v>35.47340993938481</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1455165733236825</v>
+        <v>-0.2265900606151945</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02117507311186667</v>
+        <v>0.05134305556959751</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>36.3</v>
       </c>
       <c r="C34" t="n">
-        <v>36.0760419849652</v>
+        <v>35.78141647081716</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2239580150347962</v>
+        <v>-0.518583529182834</v>
       </c>
       <c r="E34" t="n">
-        <v>0.05015719249832599</v>
+        <v>0.2689288767397233</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>36.8</v>
       </c>
       <c r="C35" t="n">
-        <v>37.00934890484561</v>
+        <v>36.31775632249545</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2093489048456121</v>
+        <v>-0.4822436775045489</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04382696396005714</v>
+        <v>0.2325589644931113</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>37.3</v>
       </c>
       <c r="C36" t="n">
-        <v>37.06469109587862</v>
+        <v>36.86067503638009</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2353089041213821</v>
+        <v>-0.439324963619903</v>
       </c>
       <c r="E36" t="n">
-        <v>0.05537028035880577</v>
+        <v>0.1930064236596291</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>37.9</v>
       </c>
       <c r="C37" t="n">
-        <v>38.01732082355522</v>
+        <v>38.00366613837494</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1173208235552252</v>
+        <v>0.1036661383749404</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01376417563967629</v>
+        <v>0.0107466682455723</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>38.5</v>
       </c>
       <c r="C38" t="n">
-        <v>38.66120263671617</v>
+        <v>38.63819033192824</v>
       </c>
       <c r="D38" t="n">
-        <v>0.161202636716169</v>
+        <v>0.1381903319282429</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02598629008424515</v>
+        <v>0.01909656783843796</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>38.9</v>
       </c>
       <c r="C39" t="n">
-        <v>39.08689015532173</v>
+        <v>39.25701150574267</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1868901553217341</v>
+        <v>0.357011505742669</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03492793015618191</v>
+        <v>0.1274572152326478</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>39.4</v>
       </c>
       <c r="C40" t="n">
-        <v>39.51705279847814</v>
+        <v>39.78062723111801</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1170527984781415</v>
+        <v>0.3806272311180123</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01370135763156441</v>
+        <v>0.1448770890685648</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>39.9</v>
       </c>
       <c r="C41" t="n">
-        <v>39.80047003346329</v>
+        <v>39.93355248952994</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.09952996653670709</v>
+        <v>0.03355248952994572</v>
       </c>
       <c r="E41" t="n">
-        <v>0.009906214238798033</v>
+        <v>0.001125769553657117</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>40.1</v>
       </c>
       <c r="C42" t="n">
-        <v>39.94117075655549</v>
+        <v>39.57900689891961</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1588292434445151</v>
+        <v>-0.5209931010803928</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02522672857315704</v>
+        <v>0.2714338113733644</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>40.6</v>
       </c>
       <c r="C43" t="n">
-        <v>40.0960036439964</v>
+        <v>40.50373139638501</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.5039963560035972</v>
+        <v>-0.09626860361498757</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2540123268649047</v>
+        <v>0.009267644041979597</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>40.9</v>
       </c>
       <c r="C44" t="n">
-        <v>40.38686425707408</v>
+        <v>40.53828661866802</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.5131357429259182</v>
+        <v>-0.3617133813319739</v>
       </c>
       <c r="E44" t="n">
-        <v>0.263308290668134</v>
+        <v>0.13083657023461</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>41.2</v>
       </c>
       <c r="C45" t="n">
-        <v>41.23857153692916</v>
+        <v>41.34804051708238</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03857153692916171</v>
+        <v>0.1480405170823786</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001487763461077686</v>
+        <v>0.02191599469801804</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>41.5</v>
       </c>
       <c r="C46" t="n">
-        <v>41.47088209601379</v>
+        <v>40.98852794875395</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.0291179039862115</v>
+        <v>-0.5114720512460522</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0008478523325502317</v>
+        <v>0.2616036592058443</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>41.8</v>
       </c>
       <c r="C47" t="n">
-        <v>42.09844203448182</v>
+        <v>41.12094697642505</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2984420344818233</v>
+        <v>-0.6790530235749515</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08906764794564979</v>
+        <v>0.4611130088262836</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>42.2</v>
       </c>
       <c r="C48" t="n">
-        <v>42.39337219403187</v>
+        <v>42.2739453400367</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1933721940318662</v>
+        <v>0.07394534003670117</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03739280542469772</v>
+        <v>0.005467913313143361</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>42.7</v>
       </c>
       <c r="C49" t="n">
-        <v>43.3717007085433</v>
+        <v>43.48737915769901</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6717007085432982</v>
+        <v>0.7873791576990072</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4511818418575689</v>
+        <v>0.6199659379787981</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>43.7</v>
       </c>
       <c r="C50" t="n">
-        <v>43.9667627965911</v>
+        <v>44.38187475288774</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2667627965910953</v>
+        <v>0.6818747528877367</v>
       </c>
       <c r="E50" t="n">
-        <v>0.07116238964510206</v>
+        <v>0.4649531786257119</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>44.2</v>
       </c>
       <c r="C51" t="n">
-        <v>43.48826428007315</v>
+        <v>43.93687705961976</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.7117357199268568</v>
+        <v>-0.2631229403802422</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5065677350198011</v>
+        <v>0.06923368175434449</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.9776296810985414</v>
+        <v>-1.146356593832145</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>5.340535819661321</v>
+        <v>8.423845414075046</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1068107163932264</v>
+        <v>0.1684769082815009</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_9.xlsx
+++ b/full/sliding_window_results_window_9.xlsx
@@ -468,13 +468,13 @@
         <v>29.81</v>
       </c>
       <c r="C2" t="n">
-        <v>29.81875013623482</v>
+        <v>29.56890998060144</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008750136234823458</v>
+        <v>-0.2410900193985626</v>
       </c>
       <c r="E2" t="n">
-        <v>7.656488412797044e-05</v>
+        <v>0.05812439745359927</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.92</v>
       </c>
       <c r="C3" t="n">
-        <v>29.96620692625546</v>
+        <v>30.22844125423397</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04620692625545786</v>
+        <v>0.3084412542339727</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002135080033977321</v>
+        <v>0.0951360073134262</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.98</v>
       </c>
       <c r="C4" t="n">
-        <v>29.64858280488839</v>
+        <v>29.85392925315063</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3314171951116087</v>
+        <v>-0.126070746849372</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1098373572156461</v>
+        <v>0.01589383321115845</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>30.04</v>
       </c>
       <c r="C5" t="n">
-        <v>29.67757263402056</v>
+        <v>29.72503526093136</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.362427365979439</v>
+        <v>-0.3149647390686425</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1313535956107942</v>
+        <v>0.09920278685657807</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>30.21</v>
       </c>
       <c r="C6" t="n">
-        <v>29.16275545037829</v>
+        <v>29.18992340284446</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.047244549621713</v>
+        <v>-1.020076597155541</v>
       </c>
       <c r="E6" t="n">
-        <v>1.096721146712384</v>
+        <v>1.040556264064427</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.22</v>
       </c>
       <c r="C7" t="n">
-        <v>29.46962369755646</v>
+        <v>29.35999305598244</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7503763024435415</v>
+        <v>-0.8600069440175631</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5630645952688412</v>
+        <v>0.7396119437584279</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.38</v>
       </c>
       <c r="C8" t="n">
-        <v>29.70658430130748</v>
+        <v>29.81961451860284</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6734156986925157</v>
+        <v>-0.5603854813971552</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4534887032455291</v>
+        <v>0.3140318877607213</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.44</v>
       </c>
       <c r="C9" t="n">
-        <v>30.12604549054759</v>
+        <v>30.05013594344648</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3139545094524081</v>
+        <v>-0.3898640565535239</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09856743400550221</v>
+        <v>0.1519939825923692</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.48</v>
       </c>
       <c r="C10" t="n">
-        <v>30.36788804828327</v>
+        <v>30.36275929080759</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1121119517167344</v>
+        <v>-0.1172407091924121</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01256908971773538</v>
+        <v>0.01374538389193975</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.69</v>
       </c>
       <c r="C11" t="n">
-        <v>30.59325418296149</v>
+        <v>30.72078795002816</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.09674581703851004</v>
+        <v>0.03078795002816292</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00935975311444886</v>
+        <v>0.0009478978669366574</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.75</v>
       </c>
       <c r="C12" t="n">
-        <v>30.77393812435264</v>
+        <v>30.80221646540544</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02393812435263953</v>
+        <v>0.05221646540544</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0005730337975224339</v>
+        <v>0.002726559259437513</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.94</v>
       </c>
       <c r="C13" t="n">
-        <v>31.27779436763707</v>
+        <v>31.38582692982474</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3377943676370734</v>
+        <v>0.4458269298247401</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1141050348073303</v>
+        <v>0.1987616513569538</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.95</v>
       </c>
       <c r="C14" t="n">
-        <v>31.36702078946621</v>
+        <v>30.55859936060586</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4170207894662106</v>
+        <v>-0.3914006393941349</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1739063388470215</v>
+        <v>0.1531944605181376</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>31.02</v>
       </c>
       <c r="C15" t="n">
-        <v>31.55713406818036</v>
+        <v>31.51778631621526</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5371340681803645</v>
+        <v>0.4977863162152616</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2885130071999884</v>
+        <v>0.2477912166111604</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.12</v>
       </c>
       <c r="C16" t="n">
-        <v>31.65189932080112</v>
+        <v>31.54681756240231</v>
       </c>
       <c r="D16" t="n">
-        <v>0.53189932080112</v>
+        <v>0.4268175624023129</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2829168874686928</v>
+        <v>0.1821732315750523</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.28</v>
       </c>
       <c r="C17" t="n">
-        <v>32.01539590513798</v>
+        <v>31.88057718785868</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7353959051379775</v>
+        <v>0.6005771878586792</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5408071372937052</v>
+        <v>0.3606929585762392</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.38</v>
       </c>
       <c r="C18" t="n">
-        <v>31.84194400932813</v>
+        <v>31.74894684510264</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4619440093281284</v>
+        <v>0.3689468451026414</v>
       </c>
       <c r="E18" t="n">
-        <v>0.213392267754146</v>
+        <v>0.1361217745111925</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.58</v>
       </c>
       <c r="C19" t="n">
-        <v>31.89641465392014</v>
+        <v>31.79266752578501</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3164146539201411</v>
+        <v>0.2126675257850152</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1001182332154027</v>
+        <v>0.04522747652352013</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.65</v>
       </c>
       <c r="C20" t="n">
-        <v>31.85318138283721</v>
+        <v>31.65179499702721</v>
       </c>
       <c r="D20" t="n">
-        <v>0.203181382837208</v>
+        <v>0.001794997027207756</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04128267433164007</v>
+        <v>3.222014327684683e-06</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.88</v>
       </c>
       <c r="C21" t="n">
-        <v>32.48827214235342</v>
+        <v>32.3319812935137</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6082721423534245</v>
+        <v>0.4519812935137004</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3699949991632248</v>
+        <v>0.2042870896863178</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>32.28</v>
       </c>
       <c r="C22" t="n">
-        <v>32.51841802215459</v>
+        <v>32.2095241388831</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2384180221545904</v>
+        <v>-0.07047586111689697</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05684315328810676</v>
+        <v>0.004966847000168149</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>32.45</v>
       </c>
       <c r="C23" t="n">
-        <v>32.34449417521264</v>
+        <v>32.28143252957662</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1055058247873646</v>
+        <v>-0.1685674704233833</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01113147906406208</v>
+        <v>0.02841499208493819</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.85</v>
       </c>
       <c r="C24" t="n">
-        <v>33.24921042515826</v>
+        <v>33.33455906246267</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3992104251582589</v>
+        <v>0.4845590624626723</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1593689635550378</v>
+        <v>0.234797485014704</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.9</v>
       </c>
       <c r="C25" t="n">
-        <v>33.09910619755787</v>
+        <v>32.58205324665492</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1991061975578674</v>
+        <v>-0.3179467533450762</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03964327790595253</v>
+        <v>0.1010901379626747</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>33.1</v>
       </c>
       <c r="C26" t="n">
-        <v>32.83653587329206</v>
+        <v>33.22884132644273</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2634641267079374</v>
+        <v>0.1288413264427319</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06941334606197609</v>
+        <v>0.01660008739952262</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>33.4</v>
       </c>
       <c r="C27" t="n">
-        <v>33.30289103388547</v>
+        <v>33.44704725729468</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.09710896611452569</v>
+        <v>0.04704725729468606</v>
       </c>
       <c r="E27" t="n">
-        <v>0.009430151299832098</v>
+        <v>0.002213444418952391</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>33.7</v>
       </c>
       <c r="C28" t="n">
-        <v>33.44744563754524</v>
+        <v>33.84718010349615</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2525543624547666</v>
+        <v>0.1471801034961473</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06378370599493362</v>
+        <v>0.02166198286513663</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>34.1</v>
       </c>
       <c r="C29" t="n">
-        <v>33.97102875782325</v>
+        <v>34.40679817028047</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1289712421767533</v>
+        <v>0.306798170280473</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01663358130861474</v>
+        <v>0.09412511728744608</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>34.4</v>
       </c>
       <c r="C30" t="n">
-        <v>34.30255505098672</v>
+        <v>34.66995546438927</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.09744494901327982</v>
+        <v>0.2699554643892697</v>
       </c>
       <c r="E30" t="n">
-        <v>0.009495518088200705</v>
+        <v>0.07287595275362624</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>34.9</v>
       </c>
       <c r="C31" t="n">
-        <v>34.76595028143137</v>
+        <v>34.90634599792119</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.134049718568626</v>
+        <v>0.006345997921194169</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01796932704832784</v>
+        <v>4.027168961580071e-05</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>35.3</v>
       </c>
       <c r="C32" t="n">
-        <v>35.25082738242374</v>
+        <v>35.09441953251255</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.04917261757626079</v>
+        <v>-0.2055804674874437</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002417946319301192</v>
+        <v>0.04226332861235591</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>35.7</v>
       </c>
       <c r="C33" t="n">
-        <v>35.47340993938481</v>
+        <v>35.3705538884327</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2265900606151945</v>
+        <v>-0.3294461115673073</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05134305556959751</v>
+        <v>0.1085347404268187</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>36.3</v>
       </c>
       <c r="C34" t="n">
-        <v>35.78141647081716</v>
+        <v>35.76402354537785</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.518583529182834</v>
+        <v>-0.5359764546221442</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2689288767397233</v>
+        <v>0.2872707599093234</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>36.8</v>
       </c>
       <c r="C35" t="n">
-        <v>36.31775632249545</v>
+        <v>35.92184750881835</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.4822436775045489</v>
+        <v>-0.8781524911816447</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2325589644931113</v>
+        <v>0.7711517977685286</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>37.3</v>
       </c>
       <c r="C36" t="n">
-        <v>36.86067503638009</v>
+        <v>36.6959276855758</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.439324963619903</v>
+        <v>-0.6040723144242008</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1930064236596291</v>
+        <v>0.3649033610538105</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>37.9</v>
       </c>
       <c r="C37" t="n">
-        <v>38.00366613837494</v>
+        <v>37.73963131138843</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1036661383749404</v>
+        <v>-0.1603686886115696</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0107466682455723</v>
+        <v>0.02571811628699458</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>38.5</v>
       </c>
       <c r="C38" t="n">
-        <v>38.63819033192824</v>
+        <v>38.62935756254753</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1381903319282429</v>
+        <v>0.1293575625475256</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01909656783843796</v>
+        <v>0.016733378988237</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>38.9</v>
       </c>
       <c r="C39" t="n">
-        <v>39.25701150574267</v>
+        <v>39.0291191384299</v>
       </c>
       <c r="D39" t="n">
-        <v>0.357011505742669</v>
+        <v>0.1291191384298997</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1274572152326478</v>
+        <v>0.01667175190887962</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>39.4</v>
       </c>
       <c r="C40" t="n">
-        <v>39.78062723111801</v>
+        <v>39.59556067279973</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3806272311180123</v>
+        <v>0.1955606727997292</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1448770890685648</v>
+        <v>0.03824397674588275</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>39.9</v>
       </c>
       <c r="C41" t="n">
-        <v>39.93355248952994</v>
+        <v>40.17469997845759</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03355248952994572</v>
+        <v>0.2746999784575905</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001125769553657117</v>
+        <v>0.07546007816460071</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>40.1</v>
       </c>
       <c r="C42" t="n">
-        <v>39.57900689891961</v>
+        <v>40.05127925872078</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.5209931010803928</v>
+        <v>-0.04872074127922588</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2714338113733644</v>
+        <v>0.002373710630797264</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>40.6</v>
       </c>
       <c r="C43" t="n">
-        <v>40.50373139638501</v>
+        <v>39.8267481190437</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.09626860361498757</v>
+        <v>-0.7732518809563018</v>
       </c>
       <c r="E43" t="n">
-        <v>0.009267644041979597</v>
+        <v>0.5979184714024588</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>40.9</v>
       </c>
       <c r="C44" t="n">
-        <v>40.53828661866802</v>
+        <v>41.07800604273915</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.3617133813319739</v>
+        <v>0.178006042739149</v>
       </c>
       <c r="E44" t="n">
-        <v>0.13083657023461</v>
+        <v>0.03168615125165174</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>41.2</v>
       </c>
       <c r="C45" t="n">
-        <v>41.34804051708238</v>
+        <v>41.97918947286036</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1480405170823786</v>
+        <v>0.7791894728603594</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02191599469801804</v>
+        <v>0.6071362346164049</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>41.5</v>
       </c>
       <c r="C46" t="n">
-        <v>40.98852794875395</v>
+        <v>41.35184761810656</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.5114720512460522</v>
+        <v>-0.1481523818934392</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2616036592058443</v>
+        <v>0.02194912826069944</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>41.8</v>
       </c>
       <c r="C47" t="n">
-        <v>41.12094697642505</v>
+        <v>41.44325163417867</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.6790530235749515</v>
+        <v>-0.356748365821332</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4611130088262836</v>
+        <v>0.1272693965161909</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>42.2</v>
       </c>
       <c r="C48" t="n">
-        <v>42.2739453400367</v>
+        <v>42.83212669681611</v>
       </c>
       <c r="D48" t="n">
-        <v>0.07394534003670117</v>
+        <v>0.6321266968161083</v>
       </c>
       <c r="E48" t="n">
-        <v>0.005467913313143361</v>
+        <v>0.3995841608276441</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>42.7</v>
       </c>
       <c r="C49" t="n">
-        <v>43.48737915769901</v>
+        <v>43.14550909362872</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7873791576990072</v>
+        <v>0.4455090936287149</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6199659379787981</v>
+        <v>0.1984783525058791</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>43.7</v>
       </c>
       <c r="C50" t="n">
-        <v>44.38187475288774</v>
+        <v>43.65454795263608</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6818747528877367</v>
+        <v>-0.0454520473639235</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4649531786257119</v>
+        <v>0.002065888609572345</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>44.2</v>
       </c>
       <c r="C51" t="n">
-        <v>43.93687705961976</v>
+        <v>44.28958099704698</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.2631229403802422</v>
+        <v>0.08958099704697275</v>
       </c>
       <c r="E51" t="n">
-        <v>0.06923368175434449</v>
+        <v>0.008024755031929742</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-1.146356593832145</v>
+        <v>-1.022290598110438</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>8.423845414075046</v>
+        <v>8.380447883397366</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1684769082815009</v>
+        <v>0.1676089576679473</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_9.xlsx
+++ b/full/sliding_window_results_window_9.xlsx
@@ -468,13 +468,13 @@
         <v>29.81</v>
       </c>
       <c r="C2" t="n">
-        <v>29.56890998060144</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2410900193985626</v>
+        <v>-29.81</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05812439745359927</v>
+        <v>888.6360999999999</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.92</v>
       </c>
       <c r="C3" t="n">
-        <v>30.22844125423397</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3084412542339727</v>
+        <v>-29.92</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0951360073134262</v>
+        <v>895.2064000000001</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.98</v>
       </c>
       <c r="C4" t="n">
-        <v>29.85392925315063</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.126070746849372</v>
+        <v>-29.98</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01589383321115845</v>
+        <v>898.8004000000001</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>30.04</v>
       </c>
       <c r="C5" t="n">
-        <v>29.72503526093136</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3149647390686425</v>
+        <v>-30.04</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09920278685657807</v>
+        <v>902.4015999999999</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>30.21</v>
       </c>
       <c r="C6" t="n">
-        <v>29.18992340284446</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.020076597155541</v>
+        <v>-30.21</v>
       </c>
       <c r="E6" t="n">
-        <v>1.040556264064427</v>
+        <v>912.6441000000001</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.22</v>
       </c>
       <c r="C7" t="n">
-        <v>29.35999305598244</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8600069440175631</v>
+        <v>-30.22</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7396119437584279</v>
+        <v>913.2483999999999</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.38</v>
       </c>
       <c r="C8" t="n">
-        <v>29.81961451860284</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5603854813971552</v>
+        <v>-30.38</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3140318877607213</v>
+        <v>922.9444</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.44</v>
       </c>
       <c r="C9" t="n">
-        <v>30.05013594344648</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3898640565535239</v>
+        <v>-30.44</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1519939825923692</v>
+        <v>926.5936</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.48</v>
       </c>
       <c r="C10" t="n">
-        <v>30.36275929080759</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1172407091924121</v>
+        <v>-30.48</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01374538389193975</v>
+        <v>929.0304</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.69</v>
       </c>
       <c r="C11" t="n">
-        <v>30.72078795002816</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03078795002816292</v>
+        <v>-30.69</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0009478978669366574</v>
+        <v>941.8761000000001</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.75</v>
       </c>
       <c r="C12" t="n">
-        <v>30.80221646540544</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05221646540544</v>
+        <v>-30.75</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002726559259437513</v>
+        <v>945.5625</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.94</v>
       </c>
       <c r="C13" t="n">
-        <v>31.38582692982474</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4458269298247401</v>
+        <v>-30.94</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1987616513569538</v>
+        <v>957.2836000000001</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.95</v>
       </c>
       <c r="C14" t="n">
-        <v>30.55859936060586</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3914006393941349</v>
+        <v>-30.95</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1531944605181376</v>
+        <v>957.9024999999999</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>31.02</v>
       </c>
       <c r="C15" t="n">
-        <v>31.51778631621526</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4977863162152616</v>
+        <v>-31.02</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2477912166111604</v>
+        <v>962.2404</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.12</v>
       </c>
       <c r="C16" t="n">
-        <v>31.54681756240231</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4268175624023129</v>
+        <v>-31.12</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1821732315750523</v>
+        <v>968.4544000000001</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.28</v>
       </c>
       <c r="C17" t="n">
-        <v>31.88057718785868</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6005771878586792</v>
+        <v>-31.28</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3606929585762392</v>
+        <v>978.4384000000001</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.38</v>
       </c>
       <c r="C18" t="n">
-        <v>31.74894684510264</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3689468451026414</v>
+        <v>-31.38</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1361217745111925</v>
+        <v>984.7044</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.58</v>
       </c>
       <c r="C19" t="n">
-        <v>31.79266752578501</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2126675257850152</v>
+        <v>-31.58</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04522747652352013</v>
+        <v>997.2963999999999</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.65</v>
       </c>
       <c r="C20" t="n">
-        <v>31.65179499702721</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001794997027207756</v>
+        <v>-31.65</v>
       </c>
       <c r="E20" t="n">
-        <v>3.222014327684683e-06</v>
+        <v>1001.7225</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.88</v>
       </c>
       <c r="C21" t="n">
-        <v>32.3319812935137</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4519812935137004</v>
+        <v>-31.88</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2042870896863178</v>
+        <v>1016.3344</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>32.28</v>
       </c>
       <c r="C22" t="n">
-        <v>32.2095241388831</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.07047586111689697</v>
+        <v>-32.28</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004966847000168149</v>
+        <v>1041.9984</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>32.45</v>
       </c>
       <c r="C23" t="n">
-        <v>32.28143252957662</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1685674704233833</v>
+        <v>-32.45</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02841499208493819</v>
+        <v>1053.0025</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.85</v>
       </c>
       <c r="C24" t="n">
-        <v>33.33455906246267</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4845590624626723</v>
+        <v>-32.85</v>
       </c>
       <c r="E24" t="n">
-        <v>0.234797485014704</v>
+        <v>1079.1225</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.9</v>
       </c>
       <c r="C25" t="n">
-        <v>32.58205324665492</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3179467533450762</v>
+        <v>-32.9</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1010901379626747</v>
+        <v>1082.41</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>33.1</v>
       </c>
       <c r="C26" t="n">
-        <v>33.22884132644273</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1288413264427319</v>
+        <v>-33.1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01660008739952262</v>
+        <v>1095.61</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>33.4</v>
       </c>
       <c r="C27" t="n">
-        <v>33.44704725729468</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04704725729468606</v>
+        <v>-33.4</v>
       </c>
       <c r="E27" t="n">
-        <v>0.002213444418952391</v>
+        <v>1115.56</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>33.7</v>
       </c>
       <c r="C28" t="n">
-        <v>33.84718010349615</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1471801034961473</v>
+        <v>-33.7</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02166198286513663</v>
+        <v>1135.69</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>34.1</v>
       </c>
       <c r="C29" t="n">
-        <v>34.40679817028047</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.306798170280473</v>
+        <v>-34.1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.09412511728744608</v>
+        <v>1162.81</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>34.4</v>
       </c>
       <c r="C30" t="n">
-        <v>34.66995546438927</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2699554643892697</v>
+        <v>-34.4</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07287595275362624</v>
+        <v>1183.36</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>34.9</v>
       </c>
       <c r="C31" t="n">
-        <v>34.90634599792119</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.006345997921194169</v>
+        <v>-34.9</v>
       </c>
       <c r="E31" t="n">
-        <v>4.027168961580071e-05</v>
+        <v>1218.01</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>35.3</v>
       </c>
       <c r="C32" t="n">
-        <v>35.09441953251255</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2055804674874437</v>
+        <v>-35.3</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04226332861235591</v>
+        <v>1246.09</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>35.7</v>
       </c>
       <c r="C33" t="n">
-        <v>35.3705538884327</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.3294461115673073</v>
+        <v>-35.7</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1085347404268187</v>
+        <v>1274.49</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>36.3</v>
       </c>
       <c r="C34" t="n">
-        <v>35.76402354537785</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.5359764546221442</v>
+        <v>-36.3</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2872707599093234</v>
+        <v>1317.69</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>36.8</v>
       </c>
       <c r="C35" t="n">
-        <v>35.92184750881835</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.8781524911816447</v>
+        <v>-36.8</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7711517977685286</v>
+        <v>1354.24</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>37.3</v>
       </c>
       <c r="C36" t="n">
-        <v>36.6959276855758</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.6040723144242008</v>
+        <v>-37.3</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3649033610538105</v>
+        <v>1391.29</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>37.9</v>
       </c>
       <c r="C37" t="n">
-        <v>37.73963131138843</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1603686886115696</v>
+        <v>-37.9</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02571811628699458</v>
+        <v>1436.41</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>38.5</v>
       </c>
       <c r="C38" t="n">
-        <v>38.62935756254753</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1293575625475256</v>
+        <v>-38.5</v>
       </c>
       <c r="E38" t="n">
-        <v>0.016733378988237</v>
+        <v>1482.25</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>38.9</v>
       </c>
       <c r="C39" t="n">
-        <v>39.0291191384299</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1291191384298997</v>
+        <v>-38.9</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01667175190887962</v>
+        <v>1513.21</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>39.4</v>
       </c>
       <c r="C40" t="n">
-        <v>39.59556067279973</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1955606727997292</v>
+        <v>-39.4</v>
       </c>
       <c r="E40" t="n">
-        <v>0.03824397674588275</v>
+        <v>1552.36</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>39.9</v>
       </c>
       <c r="C41" t="n">
-        <v>40.17469997845759</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2746999784575905</v>
+        <v>-39.9</v>
       </c>
       <c r="E41" t="n">
-        <v>0.07546007816460071</v>
+        <v>1592.01</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>40.1</v>
       </c>
       <c r="C42" t="n">
-        <v>40.05127925872078</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.04872074127922588</v>
+        <v>-40.1</v>
       </c>
       <c r="E42" t="n">
-        <v>0.002373710630797264</v>
+        <v>1608.01</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>40.6</v>
       </c>
       <c r="C43" t="n">
-        <v>39.8267481190437</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.7732518809563018</v>
+        <v>-40.6</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5979184714024588</v>
+        <v>1648.36</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>40.9</v>
       </c>
       <c r="C44" t="n">
-        <v>41.07800604273915</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.178006042739149</v>
+        <v>-40.9</v>
       </c>
       <c r="E44" t="n">
-        <v>0.03168615125165174</v>
+        <v>1672.81</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>41.2</v>
       </c>
       <c r="C45" t="n">
-        <v>41.97918947286036</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7791894728603594</v>
+        <v>-41.2</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6071362346164049</v>
+        <v>1697.44</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>41.5</v>
       </c>
       <c r="C46" t="n">
-        <v>41.35184761810656</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1481523818934392</v>
+        <v>-41.5</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02194912826069944</v>
+        <v>1722.25</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>41.8</v>
       </c>
       <c r="C47" t="n">
-        <v>41.44325163417867</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.356748365821332</v>
+        <v>-41.8</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1272693965161909</v>
+        <v>1747.24</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>42.2</v>
       </c>
       <c r="C48" t="n">
-        <v>42.83212669681611</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6321266968161083</v>
+        <v>-42.2</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3995841608276441</v>
+        <v>1780.84</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>42.7</v>
       </c>
       <c r="C49" t="n">
-        <v>43.14550909362872</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4455090936287149</v>
+        <v>-42.7</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1984783525058791</v>
+        <v>1823.29</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>43.7</v>
       </c>
       <c r="C50" t="n">
-        <v>43.65454795263608</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.0454520473639235</v>
+        <v>-43.7</v>
       </c>
       <c r="E50" t="n">
-        <v>0.002065888609572345</v>
+        <v>1909.69</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>44.2</v>
       </c>
       <c r="C51" t="n">
-        <v>44.28958099704698</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08958099704697275</v>
+        <v>-44.2</v>
       </c>
       <c r="E51" t="n">
-        <v>0.008024755031929742</v>
+        <v>1953.64</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-1.022290598110438</v>
+        <v>-1743.7</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>8.380447883397366</v>
+        <v>61792.50440000001</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1676089576679473</v>
+        <v>1235.850088</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_9.xlsx
+++ b/full/sliding_window_results_window_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,234 +462,880 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.231286525726318</v>
+        <v>29.81</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.229676723480225</v>
+        <v>29.74216270446777</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00160980224609375</v>
+        <v>-0.06783729553222884</v>
       </c>
       <c r="E2" t="n">
-        <v>2.591463271528482e-06</v>
+        <v>0.004601898665126954</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.229487061500549</v>
+        <v>29.92</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.217529058456421</v>
+        <v>29.95806694030762</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01195800304412842</v>
+        <v>0.03806694030761548</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0001429938420187682</v>
+        <v>0.00144909194438356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.228505492210388</v>
+        <v>29.98</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.222132205963135</v>
+        <v>30.01272392272949</v>
       </c>
       <c r="D4" t="n">
-        <v>0.006373286247253418</v>
+        <v>0.03272392272948821</v>
       </c>
       <c r="E4" t="n">
-        <v>4.061877916683443e-05</v>
+        <v>0.001070855118805515</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.227523922920227</v>
+        <v>30.03999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.226793766021729</v>
+        <v>30.02840232849121</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0007301568984985352</v>
+        <v>-0.0115976715087811</v>
       </c>
       <c r="E5" t="n">
-        <v>5.331290822141455e-07</v>
+        <v>0.000134505984425593</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.224742889404297</v>
+        <v>30.21000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.223289728164673</v>
+        <v>30.09274101257324</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001453161239624023</v>
+        <v>-0.1172589874267658</v>
       </c>
       <c r="E6" t="n">
-        <v>2.11167753150221e-06</v>
+        <v>0.01374967013235041</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.224579334259033</v>
+        <v>30.22</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.234959840774536</v>
+        <v>30.11959648132324</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01038050651550293</v>
+        <v>-0.1004035186767567</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001077549168257974</v>
+        <v>0.01008086656267383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.221961855888367</v>
+        <v>30.38</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.222185134887695</v>
+        <v>30.37978172302246</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0002232789993286133</v>
+        <v>-0.000218276977534515</v>
       </c>
       <c r="E8" t="n">
-        <v>4.985351154118689e-08</v>
+        <v>4.764483892160318e-08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.220980286598206</v>
+        <v>30.44</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.229442119598389</v>
+        <v>30.49635887145996</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.008461833000183105</v>
+        <v>0.05635887145996321</v>
       </c>
       <c r="E9" t="n">
-        <v>7.160261884564534e-05</v>
+        <v>0.003176322392240656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.220325946807861</v>
+        <v>30.48</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.225768327713013</v>
+        <v>30.5598201751709</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.005442380905151367</v>
+        <v>0.07982017517089446</v>
       </c>
       <c r="E10" t="n">
-        <v>2.961951031466015e-05</v>
+        <v>0.006371260364312276</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.216890454292297</v>
+        <v>30.69</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.211599588394165</v>
+        <v>30.71098136901855</v>
       </c>
       <c r="D11" t="n">
-        <v>0.005290865898132324</v>
+        <v>0.02098136901855696</v>
       </c>
       <c r="E11" t="n">
-        <v>2.799326284730341e-05</v>
+        <v>0.0004402178458928619</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.215909004211426</v>
+        <v>30.75</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.222265005111694</v>
+        <v>30.78160667419434</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.006356000900268555</v>
+        <v>0.03160667419433594</v>
       </c>
       <c r="E12" t="n">
-        <v>4.039874693262391e-05</v>
+        <v>0.0009989818536269013</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>38</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30.89680290222168</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.04319709777831804</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.001865989256469569</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30.93636894226074</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.01363105773926065</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0001858057350910578</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36</v>
+      </c>
+      <c r="B15" t="n">
+        <v>31.02</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31.05902671813965</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03902671813965242</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.001523084728751875</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35</v>
+      </c>
+      <c r="B16" t="n">
+        <v>31.12</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31.24712944030762</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1271294403076126</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.01616189459292685</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34</v>
+      </c>
+      <c r="B17" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31.27426719665527</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.005732803344727699</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.28650341893211e-05</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33</v>
+      </c>
+      <c r="B18" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="C18" t="n">
+        <v>31.35793113708496</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.02206886291503452</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0004870347103625857</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32</v>
+      </c>
+      <c r="B19" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="C19" t="n">
+        <v>31.53549766540527</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.04450233459472486</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.001980457784380845</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31</v>
+      </c>
+      <c r="B20" t="n">
+        <v>31.65000000000001</v>
+      </c>
+      <c r="C20" t="n">
+        <v>31.62885093688965</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.02114906311035725</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0004472828704458738</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>30</v>
+      </c>
+      <c r="B21" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="C21" t="n">
+        <v>32.0758171081543</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1958171081543014</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.03834433984591338</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>29</v>
+      </c>
+      <c r="B22" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>32.29037857055664</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.01037857055663949</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0001077147267991441</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="C23" t="n">
+        <v>32.31330490112305</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.136695098876956</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.01868555005698077</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>32.84999999999999</v>
+      </c>
+      <c r="C24" t="n">
+        <v>32.83717727661133</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.01282272338866619</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0001644222351022469</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>32.90000000000001</v>
+      </c>
+      <c r="C25" t="n">
+        <v>32.89347457885742</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.006525421142583809</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.258112108807979e-05</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>33.09999999999999</v>
+      </c>
+      <c r="C26" t="n">
+        <v>33.0017204284668</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.09827957153319744</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.009658874180748872</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" t="n">
+        <v>33.40000000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>33.3702507019043</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.02974929809570881</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0008850207371873438</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="C28" t="n">
+        <v>33.68500900268555</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.01499099731445597</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.000224730000482026</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>22</v>
+      </c>
+      <c r="B29" t="n">
+        <v>34.09999999999999</v>
+      </c>
+      <c r="C29" t="n">
+        <v>34.16347122192383</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.06347122192383381</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.004028596012504561</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21</v>
+      </c>
+      <c r="B30" t="n">
+        <v>34.40000000000001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>34.56294631958008</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1629463195800724</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0265515030646911</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" t="n">
+        <v>34.90000000000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>34.92766189575195</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.02766189575194744</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0007651804765916078</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>19</v>
+      </c>
+      <c r="B32" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>35.33122634887695</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.03122634887695597</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0009750848641853692</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>18</v>
+      </c>
+      <c r="B33" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C33" t="n">
+        <v>35.7988166809082</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.09881668090820028</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.009764736425713074</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17</v>
+      </c>
+      <c r="B34" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>36.27085494995117</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.02914505004882528</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0008494339423485306</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16</v>
+      </c>
+      <c r="B35" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>36.57889175415039</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.2211082458496065</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.04888885638269005</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15</v>
+      </c>
+      <c r="B36" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>37.25413131713867</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.04586868286132528</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.002103936067432836</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14</v>
+      </c>
+      <c r="B37" t="n">
+        <v>37.90000000000001</v>
+      </c>
+      <c r="C37" t="n">
+        <v>38.0985221862793</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.1985221862792912</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.03941105844510959</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13</v>
+      </c>
+      <c r="B38" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>38.30222702026367</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.1977729797363281</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.03911415151378606</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38.90000000000001</v>
+      </c>
+      <c r="C39" t="n">
+        <v>38.83909225463867</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.06090774536133381</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.00370975344500108</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39.40000000000001</v>
+      </c>
+      <c r="C40" t="n">
+        <v>39.43191146850586</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.03191146850585369</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.001018341822200092</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39.90000000000001</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39.99924850463867</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.09924850463866619</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.009850265673011345</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40.09999999999999</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40.00972366333008</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.09027633666991619</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.008149816962540055</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8</v>
+      </c>
+      <c r="B43" t="n">
+        <v>40.59999999999999</v>
+      </c>
+      <c r="C43" t="n">
+        <v>40.47268295288086</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.1273170471191349</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.01620963048713603</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="n">
+        <v>40.90000000000001</v>
+      </c>
+      <c r="C44" t="n">
+        <v>40.92990493774414</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.02990493774413494</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0008943053014805866</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" t="n">
+        <v>41.20000000000001</v>
+      </c>
+      <c r="C45" t="n">
+        <v>41.19739151000977</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.002608489990244323</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6.804220029204826e-06</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>41.37606811523438</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.123931884765625</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.01535911206156015</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C47" t="n">
+        <v>42.03357315063477</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.2335731506347685</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.05455641669745224</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>42.12024688720703</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.07975311279297159</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.006360559000168449</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C49" t="n">
+        <v>42.69940185546875</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.0005981445312528422</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.577768802676823e-07</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="C50" t="n">
+        <v>43.74715423583984</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.04715423583984801</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.002223521957640007</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
         <v>0</v>
       </c>
-      <c r="B13" t="n">
-        <v>-1.212800741195679</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-1.208829164505005</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.003971576690673828</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.577342118253e-05</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="B51" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>44.24681091308594</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.04681091308593466</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.002191261583938929</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>0.0005228519439697266</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0.000482041243230924</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>-0.0227901458740547</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>0.4258540503096886</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>MSE</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>4.0170103602577e-05</v>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>0.008517081006193772</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_9.xlsx
+++ b/full/sliding_window_results_window_9.xlsx
@@ -468,13 +468,13 @@
         <v>29.81</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>29.92086429301134</v>
       </c>
       <c r="D2" t="n">
-        <v>-29.81</v>
+        <v>0.1108642930113426</v>
       </c>
       <c r="E2" t="n">
-        <v>888.6360999999999</v>
+        <v>0.01229089146490483</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.92</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>29.75576833558574</v>
       </c>
       <c r="D3" t="n">
-        <v>-29.92</v>
+        <v>-0.1642316644142596</v>
       </c>
       <c r="E3" t="n">
-        <v>895.2064000000001</v>
+        <v>0.02697203959627799</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.98</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>30.13415867165269</v>
       </c>
       <c r="D4" t="n">
-        <v>-29.98</v>
+        <v>0.1541586716526879</v>
       </c>
       <c r="E4" t="n">
-        <v>898.8004000000001</v>
+        <v>0.02376489604572125</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>30.04</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>30.30169986370785</v>
       </c>
       <c r="D5" t="n">
-        <v>-30.04</v>
+        <v>0.2616998637078467</v>
       </c>
       <c r="E5" t="n">
-        <v>902.4015999999999</v>
+        <v>0.06848681866470555</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>30.21</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>30.3981413549078</v>
       </c>
       <c r="D6" t="n">
-        <v>-30.21</v>
+        <v>0.1881413549078026</v>
       </c>
       <c r="E6" t="n">
-        <v>912.6441000000001</v>
+        <v>0.03539716942654374</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.22</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>30.79484862147722</v>
       </c>
       <c r="D7" t="n">
-        <v>-30.22</v>
+        <v>0.5748486214772228</v>
       </c>
       <c r="E7" t="n">
-        <v>913.2483999999999</v>
+        <v>0.3304509376142634</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.38</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>30.40182221066854</v>
       </c>
       <c r="D8" t="n">
-        <v>-30.38</v>
+        <v>0.02182221066853884</v>
       </c>
       <c r="E8" t="n">
-        <v>922.9444</v>
+        <v>0.0004762088784620906</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.44</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>30.58925283100595</v>
       </c>
       <c r="D9" t="n">
-        <v>-30.44</v>
+        <v>0.1492528310059456</v>
       </c>
       <c r="E9" t="n">
-        <v>926.5936</v>
+        <v>0.02227640756328934</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.48</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>30.76726524769149</v>
       </c>
       <c r="D10" t="n">
-        <v>-30.48</v>
+        <v>0.2872652476914901</v>
       </c>
       <c r="E10" t="n">
-        <v>929.0304</v>
+        <v>0.08252132253125315</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.69</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>30.65553389362031</v>
       </c>
       <c r="D11" t="n">
-        <v>-30.69</v>
+        <v>-0.03446610637968917</v>
       </c>
       <c r="E11" t="n">
-        <v>941.8761000000001</v>
+        <v>0.00118791248897605</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.75</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>30.46319840433761</v>
       </c>
       <c r="D12" t="n">
-        <v>-30.75</v>
+        <v>-0.2868015956623857</v>
       </c>
       <c r="E12" t="n">
-        <v>945.5625</v>
+        <v>0.08225515527449059</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.94</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>30.33826832813858</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.94</v>
+        <v>-0.6017316718614261</v>
       </c>
       <c r="E13" t="n">
-        <v>957.2836000000001</v>
+        <v>0.3620810049211469</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.95</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>30.91421946098578</v>
       </c>
       <c r="D14" t="n">
-        <v>-30.95</v>
+        <v>-0.03578053901421541</v>
       </c>
       <c r="E14" t="n">
-        <v>957.9024999999999</v>
+        <v>0.001280246972147791</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>31.02</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>31.08334631199928</v>
       </c>
       <c r="D15" t="n">
-        <v>-31.02</v>
+        <v>0.06334631199928253</v>
       </c>
       <c r="E15" t="n">
-        <v>962.2404</v>
+        <v>0.004012755243910446</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.12</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>31.37386341866624</v>
       </c>
       <c r="D16" t="n">
-        <v>-31.12</v>
+        <v>0.253863418666235</v>
       </c>
       <c r="E16" t="n">
-        <v>968.4544000000001</v>
+        <v>0.0644466353369081</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.28</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>31.35382061469859</v>
       </c>
       <c r="D17" t="n">
-        <v>-31.28</v>
+        <v>0.0738206146985867</v>
       </c>
       <c r="E17" t="n">
-        <v>978.4384000000001</v>
+        <v>0.005449483154477194</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.38</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>31.76592095163</v>
       </c>
       <c r="D18" t="n">
-        <v>-31.38</v>
+        <v>0.3859209516300055</v>
       </c>
       <c r="E18" t="n">
-        <v>984.7044</v>
+        <v>0.148934980907009</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.58</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>32.08039714711408</v>
       </c>
       <c r="D19" t="n">
-        <v>-31.58</v>
+        <v>0.5003971471140858</v>
       </c>
       <c r="E19" t="n">
-        <v>997.2963999999999</v>
+        <v>0.250397304839916</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.65</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>32.05691973869513</v>
       </c>
       <c r="D20" t="n">
-        <v>-31.65</v>
+        <v>0.4069197386951302</v>
       </c>
       <c r="E20" t="n">
-        <v>1001.7225</v>
+        <v>0.1655836737397131</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.88</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>31.72850874014626</v>
       </c>
       <c r="D21" t="n">
-        <v>-31.88</v>
+        <v>-0.1514912598537421</v>
       </c>
       <c r="E21" t="n">
-        <v>1016.3344</v>
+        <v>0.02294960181207402</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>32.28</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>32.34452537865486</v>
       </c>
       <c r="D22" t="n">
-        <v>-32.28</v>
+        <v>0.06452537865485652</v>
       </c>
       <c r="E22" t="n">
-        <v>1041.9984</v>
+        <v>0.004163524490552614</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>32.45</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>32.3279649760885</v>
       </c>
       <c r="D23" t="n">
-        <v>-32.45</v>
+        <v>-0.1220350239115078</v>
       </c>
       <c r="E23" t="n">
-        <v>1053.0025</v>
+        <v>0.01489254706108228</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.85</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>33.35621045423139</v>
       </c>
       <c r="D24" t="n">
-        <v>-32.85</v>
+        <v>0.5062104542313861</v>
       </c>
       <c r="E24" t="n">
-        <v>1079.1225</v>
+        <v>0.2562490239731463</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.9</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>33.01847596218533</v>
       </c>
       <c r="D25" t="n">
-        <v>-32.9</v>
+        <v>0.118475962185336</v>
       </c>
       <c r="E25" t="n">
-        <v>1082.41</v>
+        <v>0.01403655361574116</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>33.1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>33.19891958886334</v>
       </c>
       <c r="D26" t="n">
-        <v>-33.1</v>
+        <v>0.09891958886333896</v>
       </c>
       <c r="E26" t="n">
-        <v>1095.61</v>
+        <v>0.009785085060892013</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>33.4</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>33.16046126621927</v>
       </c>
       <c r="D27" t="n">
-        <v>-33.4</v>
+        <v>-0.2395387337807335</v>
       </c>
       <c r="E27" t="n">
-        <v>1115.56</v>
+        <v>0.05737880498127713</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>33.7</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>33.7893257046001</v>
       </c>
       <c r="D28" t="n">
-        <v>-33.7</v>
+        <v>0.0893257046000997</v>
       </c>
       <c r="E28" t="n">
-        <v>1135.69</v>
+        <v>0.007979081502304272</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>34.1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>34.5665080189096</v>
       </c>
       <c r="D29" t="n">
-        <v>-34.1</v>
+        <v>0.4665080189096003</v>
       </c>
       <c r="E29" t="n">
-        <v>1162.81</v>
+        <v>0.21762973170696</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>34.4</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>34.59969205759258</v>
       </c>
       <c r="D30" t="n">
-        <v>-34.4</v>
+        <v>0.1996920575925856</v>
       </c>
       <c r="E30" t="n">
-        <v>1183.36</v>
+        <v>0.03987691786556051</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>34.9</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>35.16502067223599</v>
       </c>
       <c r="D31" t="n">
-        <v>-34.9</v>
+        <v>0.2650206722359911</v>
       </c>
       <c r="E31" t="n">
-        <v>1218.01</v>
+        <v>0.07023595671241664</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>35.3</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>34.96264882611138</v>
       </c>
       <c r="D32" t="n">
-        <v>-35.3</v>
+        <v>-0.3373511738886137</v>
       </c>
       <c r="E32" t="n">
-        <v>1246.09</v>
+        <v>0.1138058145240257</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>35.7</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>35.26988327467259</v>
       </c>
       <c r="D33" t="n">
-        <v>-35.7</v>
+        <v>-0.4301167253274158</v>
       </c>
       <c r="E33" t="n">
-        <v>1274.49</v>
+        <v>0.1850003974063797</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>36.3</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>36.0186020077862</v>
       </c>
       <c r="D34" t="n">
-        <v>-36.3</v>
+        <v>-0.2813979922137975</v>
       </c>
       <c r="E34" t="n">
-        <v>1317.69</v>
+        <v>0.07918483002195642</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>36.8</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>36.39685792328989</v>
       </c>
       <c r="D35" t="n">
-        <v>-36.8</v>
+        <v>-0.4031420767101039</v>
       </c>
       <c r="E35" t="n">
-        <v>1354.24</v>
+        <v>0.1625235340141353</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>37.3</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>37.41331571183255</v>
       </c>
       <c r="D36" t="n">
-        <v>-37.3</v>
+        <v>0.1133157118325485</v>
       </c>
       <c r="E36" t="n">
-        <v>1391.29</v>
+        <v>0.01284045054811718</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>37.9</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.87972272349179</v>
       </c>
       <c r="D37" t="n">
-        <v>-37.9</v>
+        <v>-0.02027727650821021</v>
       </c>
       <c r="E37" t="n">
-        <v>1436.41</v>
+        <v>0.0004111679425904135</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>38.5</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>38.38858216854828</v>
       </c>
       <c r="D38" t="n">
-        <v>-38.5</v>
+        <v>-0.1114178314517247</v>
       </c>
       <c r="E38" t="n">
-        <v>1482.25</v>
+        <v>0.01241393316540493</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>38.9</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>39.22039050917978</v>
       </c>
       <c r="D39" t="n">
-        <v>-38.9</v>
+        <v>0.3203905091797807</v>
       </c>
       <c r="E39" t="n">
-        <v>1513.21</v>
+        <v>0.1026500783724792</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>39.4</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>39.91697248426966</v>
       </c>
       <c r="D40" t="n">
-        <v>-39.4</v>
+        <v>0.5169724842696581</v>
       </c>
       <c r="E40" t="n">
-        <v>1552.36</v>
+        <v>0.2672605494919419</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>39.9</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>40.06922978261161</v>
       </c>
       <c r="D41" t="n">
-        <v>-39.9</v>
+        <v>0.1692297826116089</v>
       </c>
       <c r="E41" t="n">
-        <v>1592.01</v>
+        <v>0.02863871932277241</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>40.1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>39.85084667886793</v>
       </c>
       <c r="D42" t="n">
-        <v>-40.1</v>
+        <v>-0.24915332113207</v>
       </c>
       <c r="E42" t="n">
-        <v>1608.01</v>
+        <v>0.0620773774311404</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>40.6</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>41.03408562619104</v>
       </c>
       <c r="D43" t="n">
-        <v>-40.6</v>
+        <v>0.4340856261910346</v>
       </c>
       <c r="E43" t="n">
-        <v>1648.36</v>
+        <v>0.1884303308656627</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>40.9</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>41.26257785707261</v>
       </c>
       <c r="D44" t="n">
-        <v>-40.9</v>
+        <v>0.3625778570726084</v>
       </c>
       <c r="E44" t="n">
-        <v>1672.81</v>
+        <v>0.1314627024393648</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>41.2</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>41.01829683879443</v>
       </c>
       <c r="D45" t="n">
-        <v>-41.2</v>
+        <v>-0.1817031612055686</v>
       </c>
       <c r="E45" t="n">
-        <v>1697.44</v>
+        <v>0.03301603879209686</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>41.5</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>40.88273289387499</v>
       </c>
       <c r="D46" t="n">
-        <v>-41.5</v>
+        <v>-0.6172671061250057</v>
       </c>
       <c r="E46" t="n">
-        <v>1722.25</v>
+        <v>0.381018680303939</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>41.8</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>41.34702269434033</v>
       </c>
       <c r="D47" t="n">
-        <v>-41.8</v>
+        <v>-0.4529773056596653</v>
       </c>
       <c r="E47" t="n">
-        <v>1747.24</v>
+        <v>0.2051884394426899</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>42.2</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>41.86829395669196</v>
       </c>
       <c r="D48" t="n">
-        <v>-42.2</v>
+        <v>-0.3317060433080385</v>
       </c>
       <c r="E48" t="n">
-        <v>1780.84</v>
+        <v>0.1100288991670743</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>42.7</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>42.17851202908643</v>
       </c>
       <c r="D49" t="n">
-        <v>-42.7</v>
+        <v>-0.5214879709135758</v>
       </c>
       <c r="E49" t="n">
-        <v>1823.29</v>
+        <v>0.2719497038075585</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>43.7</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>43.42156435389256</v>
       </c>
       <c r="D50" t="n">
-        <v>-43.7</v>
+        <v>-0.2784356461074395</v>
       </c>
       <c r="E50" t="n">
-        <v>1909.69</v>
+        <v>0.07752640902326731</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>44.2</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>43.668173480221</v>
       </c>
       <c r="D51" t="n">
-        <v>-44.2</v>
+        <v>-0.5318265197790026</v>
       </c>
       <c r="E51" t="n">
-        <v>1953.64</v>
+        <v>0.2828394471402459</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-1743.7</v>
+        <v>0.7732343401484449</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>61792.50440000001</v>
+        <v>5.111710176668966</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>1235.850088</v>
+        <v>0.1022342035333793</v>
       </c>
     </row>
   </sheetData>
